--- a/TodayOpenPosition_2021-12-16_.xlsx
+++ b/TodayOpenPosition_2021-12-16_.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ray\Documents\Python\TradingModel_v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ray\Documents\Python\GoodInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>股票名稱</t>
   </si>
@@ -133,7 +133,7 @@
     <t>現股</t>
   </si>
   <si>
-    <t>▲1.00</t>
+    <t>▲7.50</t>
   </si>
   <si>
     <r>
@@ -152,7 +152,7 @@
     </r>
   </si>
   <si>
-    <t>▲1.60</t>
+    <t>▼2.50</t>
   </si>
   <si>
     <r>
@@ -171,7 +171,7 @@
     </r>
   </si>
   <si>
-    <t>▲18.00</t>
+    <t>▲19.50</t>
   </si>
   <si>
     <r>
@@ -190,7 +190,7 @@
     </r>
   </si>
   <si>
-    <t>▲5.50</t>
+    <t>▲3.50</t>
   </si>
   <si>
     <r>
@@ -209,7 +209,7 @@
     </r>
   </si>
   <si>
-    <t>▲3.60</t>
+    <t>▼1.45</t>
   </si>
   <si>
     <r>
@@ -228,7 +228,7 @@
     </r>
   </si>
   <si>
-    <t>▲15.00</t>
+    <t>▼1.50</t>
   </si>
   <si>
     <r>
@@ -247,7 +247,7 @@
     </r>
   </si>
   <si>
-    <t>▼3.50</t>
+    <t>▲17.50</t>
   </si>
   <si>
     <r>
@@ -266,7 +266,7 @@
     </r>
   </si>
   <si>
-    <t>▼1.80</t>
+    <t>▼0.70</t>
   </si>
   <si>
     <r>
@@ -285,7 +285,7 @@
     </r>
   </si>
   <si>
-    <t>▲4.50</t>
+    <t>▲29.00</t>
   </si>
   <si>
     <r>
@@ -304,7 +304,26 @@
     </r>
   </si>
   <si>
-    <t>▲6.00</t>
+    <t>▼5.00</t>
+  </si>
+  <si>
+    <r>
+      <t>5351</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鈺創</t>
+    </r>
+  </si>
+  <si>
+    <t>▲9.00</t>
   </si>
   <si>
     <r>
@@ -323,7 +342,7 @@
     </r>
   </si>
   <si>
-    <t>▲0.90</t>
+    <t>▲0.20</t>
   </si>
   <si>
     <r>
@@ -342,7 +361,7 @@
     </r>
   </si>
   <si>
-    <t>▼1.50</t>
+    <t>▼0.30</t>
   </si>
   <si>
     <r>
@@ -361,7 +380,7 @@
     </r>
   </si>
   <si>
-    <t>▲10.00</t>
+    <t>▲18.50</t>
   </si>
   <si>
     <r>
@@ -380,6 +399,9 @@
     </r>
   </si>
   <si>
+    <t>▼2.60</t>
+  </si>
+  <si>
     <r>
       <t>6190</t>
     </r>
@@ -396,7 +418,7 @@
     </r>
   </si>
   <si>
-    <t>▼0.80</t>
+    <t>▼0.20</t>
   </si>
   <si>
     <r>
@@ -415,9 +437,6 @@
     </r>
   </si>
   <si>
-    <t>▲0.55</t>
-  </si>
-  <si>
     <r>
       <t>8069</t>
     </r>
@@ -432,6 +451,9 @@
       </rPr>
       <t>元太</t>
     </r>
+  </si>
+  <si>
+    <t>▲8.00</t>
   </si>
 </sst>
 </file>
@@ -1431,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1444,7 +1466,7 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
@@ -1595,22 +1617,22 @@
         <v>4</v>
       </c>
       <c r="F3" s="3">
-        <v>275</v>
+        <v>282.5</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="6">
-        <v>1100</v>
+        <v>1130</v>
       </c>
       <c r="I3" s="6">
-        <v>1095</v>
+        <v>1125</v>
       </c>
       <c r="J3" s="3">
-        <v>-14</v>
+        <v>16</v>
       </c>
       <c r="K3" s="7">
-        <v>-1.26E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="L3" s="3">
         <v>278.48200000000003</v>
@@ -1670,22 +1692,22 @@
         <v>12</v>
       </c>
       <c r="F4" s="3">
-        <v>83.5</v>
+        <v>81</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="6">
-        <v>1002</v>
+      <c r="H4" s="3">
+        <v>972</v>
       </c>
       <c r="I4" s="3">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="J4" s="3">
-        <v>19</v>
+        <v>-10</v>
       </c>
       <c r="K4" s="7">
-        <v>1.9300000000000001E-2</v>
+        <v>-1.0200000000000001E-2</v>
       </c>
       <c r="L4" s="3">
         <v>81.945999999999998</v>
@@ -1709,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4" s="3">
         <v>0</v>
@@ -1745,22 +1767,22 @@
         <v>15</v>
       </c>
       <c r="F5" s="3">
-        <v>198</v>
+        <v>217.5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="6">
-        <v>2970</v>
+        <v>3262</v>
       </c>
       <c r="I5" s="6">
-        <v>2958</v>
+        <v>3248</v>
       </c>
       <c r="J5" s="3">
-        <v>115</v>
+        <v>405</v>
       </c>
       <c r="K5" s="7">
-        <v>4.0399999999999998E-2</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="L5" s="3">
         <v>190.376</v>
@@ -1778,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5" s="3">
         <v>0</v>
       </c>
       <c r="S5" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T5" s="3">
         <v>0</v>
@@ -1820,22 +1842,22 @@
         <v>5</v>
       </c>
       <c r="F6" s="3">
-        <v>221.5</v>
+        <v>225</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="6">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="I6" s="6">
-        <v>1102</v>
+        <v>1120</v>
       </c>
       <c r="J6" s="3">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7">
-        <v>5.4999999999999997E-3</v>
+        <v>2.18E-2</v>
       </c>
       <c r="L6" s="3">
         <v>220.17400000000001</v>
@@ -1895,22 +1917,22 @@
         <v>23</v>
       </c>
       <c r="F7" s="3">
-        <v>44.2</v>
+        <v>42.75</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="6">
-        <v>1016</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1012</v>
+      <c r="H7" s="3">
+        <v>983</v>
+      </c>
+      <c r="I7" s="3">
+        <v>980</v>
       </c>
       <c r="J7" s="3">
-        <v>18</v>
+        <v>-14</v>
       </c>
       <c r="K7" s="7">
-        <v>1.8100000000000002E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="L7" s="3">
         <v>43.408999999999999</v>
@@ -1934,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T7" s="3">
         <v>0</v>
@@ -1970,22 +1992,22 @@
         <v>4</v>
       </c>
       <c r="F8" s="3">
-        <v>279.5</v>
+        <v>278</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="6">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="I8" s="6">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="J8" s="3">
-        <v>-34</v>
+        <v>-40</v>
       </c>
       <c r="K8" s="7">
-        <v>-2.9499999999999998E-2</v>
+        <v>-3.49E-2</v>
       </c>
       <c r="L8" s="3">
         <v>288.02499999999998</v>
@@ -2045,22 +2067,22 @@
         <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>284.5</v>
+        <v>302</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="3">
-        <v>853</v>
+        <v>906</v>
       </c>
       <c r="I9" s="3">
-        <v>850</v>
+        <v>903</v>
       </c>
       <c r="J9" s="3">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7">
-        <v>2.3E-3</v>
+        <v>6.4899999999999999E-2</v>
       </c>
       <c r="L9" s="3">
         <v>283.923</v>
@@ -2120,22 +2142,22 @@
         <v>33</v>
       </c>
       <c r="F10" s="3">
-        <v>45.7</v>
+        <v>45</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="6">
-        <v>1508</v>
+        <v>1485</v>
       </c>
       <c r="I10" s="6">
-        <v>1502</v>
+        <v>1479</v>
       </c>
       <c r="J10" s="3">
-        <v>-23</v>
+        <v>-46</v>
       </c>
       <c r="K10" s="7">
-        <v>-1.5100000000000001E-2</v>
+        <v>-3.0200000000000001E-2</v>
       </c>
       <c r="L10" s="3">
         <v>46.417999999999999</v>
@@ -2195,22 +2217,22 @@
         <v>4</v>
       </c>
       <c r="F11" s="3">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="6">
-        <v>1164</v>
+        <v>1280</v>
       </c>
       <c r="I11" s="6">
-        <v>1159</v>
+        <v>1275</v>
       </c>
       <c r="J11" s="3">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7">
-        <v>6.2300000000000001E-2</v>
+        <v>0.16869999999999999</v>
       </c>
       <c r="L11" s="3">
         <v>273.96199999999999</v>
@@ -2270,22 +2292,22 @@
         <v>19</v>
       </c>
       <c r="F12" s="3">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H12" s="6">
-        <v>2527</v>
+        <v>2432</v>
       </c>
       <c r="I12" s="6">
-        <v>2516</v>
+        <v>2422</v>
       </c>
       <c r="J12" s="3">
-        <v>7</v>
+        <v>-87</v>
       </c>
       <c r="K12" s="7">
-        <v>2.8E-3</v>
+        <v>-3.4700000000000002E-2</v>
       </c>
       <c r="L12" s="3">
         <v>132.63999999999999</v>
@@ -2303,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="Q12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
@@ -2339,52 +2361,52 @@
         <v>32</v>
       </c>
       <c r="D13" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>43.95</v>
+        <v>99.9</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="3">
-        <v>879</v>
-      </c>
-      <c r="I13" s="3">
-        <v>876</v>
+      <c r="H13" s="6">
+        <v>3196</v>
+      </c>
+      <c r="I13" s="6">
+        <v>3182</v>
       </c>
       <c r="J13" s="3">
-        <v>-92</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7">
-        <v>-9.5000000000000001E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>48.615000000000002</v>
+        <v>92.221000000000004</v>
       </c>
       <c r="M13" s="3">
-        <v>48.4</v>
-      </c>
-      <c r="N13" s="3">
-        <v>968</v>
-      </c>
-      <c r="O13" s="3">
-        <v>967</v>
+        <v>91.81</v>
+      </c>
+      <c r="N13" s="6">
+        <v>2938</v>
+      </c>
+      <c r="O13" s="6">
+        <v>2937</v>
       </c>
       <c r="P13" s="3">
         <v>1</v>
       </c>
       <c r="Q13" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R13" s="3">
         <v>0</v>
       </c>
       <c r="S13" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T13" s="3">
         <v>0</v>
@@ -2414,52 +2436,52 @@
         <v>32</v>
       </c>
       <c r="D14" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3">
-        <v>68.5</v>
+        <v>44.15</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="6">
-        <v>1575</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1569</v>
+      <c r="H14" s="3">
+        <v>883</v>
+      </c>
+      <c r="I14" s="3">
+        <v>880</v>
       </c>
       <c r="J14" s="3">
-        <v>64</v>
+        <v>-88</v>
       </c>
       <c r="K14" s="7">
-        <v>4.2500000000000003E-2</v>
+        <v>-9.0800000000000006E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>65.725999999999999</v>
+        <v>48.615000000000002</v>
       </c>
       <c r="M14" s="3">
-        <v>65.430000000000007</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1505</v>
-      </c>
-      <c r="O14" s="6">
-        <v>1504</v>
+        <v>48.4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>968</v>
+      </c>
+      <c r="O14" s="3">
+        <v>967</v>
       </c>
       <c r="P14" s="3">
         <v>1</v>
       </c>
       <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -2489,40 +2511,40 @@
         <v>32</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F15" s="3">
-        <v>189.5</v>
+        <v>68.2</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H15" s="6">
-        <v>1137</v>
+        <v>1568</v>
       </c>
       <c r="I15" s="6">
-        <v>1132</v>
+        <v>1562</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7">
-        <v>2.7000000000000001E-3</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="L15" s="3">
-        <v>189.00299999999999</v>
+        <v>65.725999999999999</v>
       </c>
       <c r="M15" s="3">
-        <v>188.17</v>
+        <v>65.430000000000007</v>
       </c>
       <c r="N15" s="6">
-        <v>1129</v>
+        <v>1505</v>
       </c>
       <c r="O15" s="6">
-        <v>1128</v>
+        <v>1504</v>
       </c>
       <c r="P15" s="3">
         <v>1</v>
@@ -2534,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -2564,52 +2586,52 @@
         <v>32</v>
       </c>
       <c r="D16" s="3">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
-        <v>46.8</v>
+        <v>208</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H16" s="6">
-        <v>1918</v>
+        <v>1248</v>
       </c>
       <c r="I16" s="6">
-        <v>1910</v>
+        <v>1243</v>
       </c>
       <c r="J16" s="3">
-        <v>411</v>
+        <v>114</v>
       </c>
       <c r="K16" s="7">
-        <v>0.2742</v>
+        <v>0.1009</v>
       </c>
       <c r="L16" s="3">
-        <v>36.722999999999999</v>
+        <v>189.00299999999999</v>
       </c>
       <c r="M16" s="3">
-        <v>36.56</v>
+        <v>188.17</v>
       </c>
       <c r="N16" s="6">
-        <v>1499</v>
+        <v>1129</v>
       </c>
       <c r="O16" s="6">
-        <v>1498</v>
+        <v>1128</v>
       </c>
       <c r="P16" s="3">
         <v>1</v>
       </c>
       <c r="Q16" s="3">
+        <v>2</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
         <v>3</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>5</v>
       </c>
       <c r="T16" s="3">
         <v>0</v>
@@ -2630,7 +2652,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>31</v>
@@ -2639,52 +2661,52 @@
         <v>32</v>
       </c>
       <c r="D17" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F17" s="3">
-        <v>42.5</v>
+        <v>44.2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" s="6">
-        <v>1615</v>
+        <v>1812</v>
       </c>
       <c r="I17" s="6">
-        <v>1609</v>
+        <v>1804</v>
       </c>
       <c r="J17" s="3">
-        <v>68</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7">
-        <v>4.41E-2</v>
+        <v>0.20349999999999999</v>
       </c>
       <c r="L17" s="3">
-        <v>40.732999999999997</v>
+        <v>36.722999999999999</v>
       </c>
       <c r="M17" s="3">
-        <v>40.549999999999997</v>
+        <v>36.56</v>
       </c>
       <c r="N17" s="6">
-        <v>1541</v>
+        <v>1499</v>
       </c>
       <c r="O17" s="6">
-        <v>1539</v>
+        <v>1498</v>
       </c>
       <c r="P17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
@@ -2705,7 +2727,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>31</v>
@@ -2714,52 +2736,52 @@
         <v>32</v>
       </c>
       <c r="D18" s="3">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F18" s="3">
-        <v>17.75</v>
+        <v>42.3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="3">
-        <v>887</v>
-      </c>
-      <c r="I18" s="3">
-        <v>884</v>
+        <v>63</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1607</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1601</v>
       </c>
       <c r="J18" s="3">
-        <v>-112</v>
+        <v>60</v>
       </c>
       <c r="K18" s="7">
-        <v>-0.1124</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>20.009</v>
+        <v>40.732999999999997</v>
       </c>
       <c r="M18" s="3">
-        <v>19.920000000000002</v>
-      </c>
-      <c r="N18" s="3">
-        <v>996</v>
-      </c>
-      <c r="O18" s="3">
-        <v>995</v>
+        <v>40.549999999999997</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1541</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1539</v>
       </c>
       <c r="P18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
@@ -2780,7 +2802,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2789,52 +2811,52 @@
         <v>32</v>
       </c>
       <c r="D19" s="3">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E19" s="3">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3">
-        <v>135</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1080</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1075</v>
+        <v>17.55</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="3">
+        <v>877</v>
+      </c>
+      <c r="I19" s="3">
+        <v>874</v>
       </c>
       <c r="J19" s="3">
-        <v>18</v>
+        <v>-122</v>
       </c>
       <c r="K19" s="7">
-        <v>1.6899999999999998E-2</v>
+        <v>-0.1225</v>
       </c>
       <c r="L19" s="3">
-        <v>132.71199999999999</v>
+        <v>20.009</v>
       </c>
       <c r="M19" s="3">
-        <v>132.13</v>
-      </c>
-      <c r="N19" s="6">
-        <v>1057</v>
-      </c>
-      <c r="O19" s="6">
-        <v>1056</v>
+        <v>19.920000000000002</v>
+      </c>
+      <c r="N19" s="3">
+        <v>996</v>
+      </c>
+      <c r="O19" s="3">
+        <v>995</v>
       </c>
       <c r="P19" s="3">
         <v>1</v>
       </c>
       <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
         <v>2</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>3</v>
       </c>
       <c r="T19" s="3">
         <v>0</v>
@@ -2852,6 +2874,81 @@
         <v>226742</v>
       </c>
       <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
+        <v>143</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1144</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1139</v>
+      </c>
+      <c r="J20" s="3">
+        <v>82</v>
+      </c>
+      <c r="K20" s="7">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="L20" s="3">
+        <v>132.71199999999999</v>
+      </c>
+      <c r="M20" s="3">
+        <v>132.13</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1057</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1056</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>226742</v>
+      </c>
+      <c r="Y20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
